--- a/biology/Botanique/Dictyosperma_album/Dictyosperma_album.xlsx
+++ b/biology/Botanique/Dictyosperma_album/Dictyosperma_album.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dictyosperma album
 Le palmiste blanc (Dictyosperma album) est un palmier endémique des îles Mascareignes à grandes feuilles pennées. Il peut atteindre plus de 20 m de hauteur. Il résiste particulièrement aux cyclones, d'où l'un de ses noms en anglais "Hurricane palm". C'est une des espèces dont le cœur du bourgeon terminal est parfois, sous le nom de chou palmiste, consommé à l'île Maurice et à La Réunion. À La Réunion, le chou est cependant très rarement commercialisé, contrairement à celui du palmiste rouge.Le palmiste blanc a quasiment disparu du milieu naturel des îles Mascareignes, mais il est cultivé pour l'ornement dans les jardins et se propage facilement.
@@ -512,7 +524,9 @@
           <t>Informations complémentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Endémisme dans les Mascareignes.</t>
         </is>
